--- a/01 Datasets/02_processed_data/ses_mpd.xlsx
+++ b/01 Datasets/02_processed_data/ses_mpd.xlsx
@@ -407,19 +407,19 @@
         <v>0.8051664628957235</v>
       </c>
       <c r="C2">
-        <v>0.8129666554853137</v>
+        <v>0.8132906282486302</v>
       </c>
       <c r="D2">
-        <v>0.04023765390038744</v>
+        <v>0.04210632457278964</v>
       </c>
       <c r="E2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F2">
-        <v>-0.1938530663070067</v>
+        <v>-0.1929440632810967</v>
       </c>
       <c r="G2">
-        <v>0.356</v>
+        <v>0.349</v>
       </c>
       <c r="H2">
         <v>999</v>
@@ -433,19 +433,19 @@
         <v>0.6799270304515879</v>
       </c>
       <c r="C3">
-        <v>0.8140754879261245</v>
+        <v>0.8142488454276779</v>
       </c>
       <c r="D3">
-        <v>0.04059897709799299</v>
+        <v>0.04371960975300609</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>-3.30423244779653</v>
+        <v>-3.072347071141327</v>
       </c>
       <c r="G3">
-        <v>0.008</v>
+        <v>0.015</v>
       </c>
       <c r="H3">
         <v>999</v>
@@ -459,19 +459,19 @@
         <v>0.7011848986833579</v>
       </c>
       <c r="C4">
-        <v>0.8131456229903677</v>
+        <v>0.812579345859183</v>
       </c>
       <c r="D4">
-        <v>0.03666977054154796</v>
+        <v>0.03790560856199127</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>-3.053215841101459</v>
+        <v>-2.938732588705161</v>
       </c>
       <c r="G4">
-        <v>0.01</v>
+        <v>0.017</v>
       </c>
       <c r="H4">
         <v>999</v>
@@ -485,19 +485,19 @@
         <v>0.685582312055651</v>
       </c>
       <c r="C5">
-        <v>0.8140236137695577</v>
+        <v>0.8149962947844255</v>
       </c>
       <c r="D5">
-        <v>0.04419942736712282</v>
+        <v>0.04274668414675444</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>-2.90594945149552</v>
+        <v>-3.027462487721408</v>
       </c>
       <c r="G5">
-        <v>0.016</v>
+        <v>0.011</v>
       </c>
       <c r="H5">
         <v>999</v>
@@ -511,19 +511,19 @@
         <v>0.6612833161148399</v>
       </c>
       <c r="C6">
-        <v>0.8151088655450645</v>
+        <v>0.8158532061250825</v>
       </c>
       <c r="D6">
-        <v>0.03418849491026017</v>
+        <v>0.03519912901390437</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>-4.499336687209959</v>
+        <v>-4.391298715067192</v>
       </c>
       <c r="G6">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="H6">
         <v>999</v>
@@ -537,19 +537,19 @@
         <v>0.7866747949051348</v>
       </c>
       <c r="C7">
-        <v>0.813863106634236</v>
+        <v>0.8164278070293085</v>
       </c>
       <c r="D7">
-        <v>0.03879182174343968</v>
+        <v>0.03918565624645212</v>
       </c>
       <c r="E7">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="F7">
-        <v>-0.7008774145467702</v>
+        <v>-0.7592832422416694</v>
       </c>
       <c r="G7">
-        <v>0.209</v>
+        <v>0.188</v>
       </c>
       <c r="H7">
         <v>999</v>
@@ -563,19 +563,19 @@
         <v>0.6854947189974764</v>
       </c>
       <c r="C8">
-        <v>0.8114030400984958</v>
+        <v>0.8136106990110165</v>
       </c>
       <c r="D8">
-        <v>0.03865188394491408</v>
+        <v>0.03755900368468274</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>-3.25749506234836</v>
+        <v>-3.411059065599979</v>
       </c>
       <c r="G8">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="H8">
         <v>999</v>
@@ -589,19 +589,19 @@
         <v>0.7591148123684039</v>
       </c>
       <c r="C9">
-        <v>0.812830235986729</v>
+        <v>0.8112805764011832</v>
       </c>
       <c r="D9">
-        <v>0.04656885919911386</v>
+        <v>0.04824281803492968</v>
       </c>
       <c r="E9">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F9">
-        <v>-1.153462303825282</v>
+        <v>-1.081316684174818</v>
       </c>
       <c r="G9">
-        <v>0.111</v>
+        <v>0.126</v>
       </c>
       <c r="H9">
         <v>999</v>
@@ -615,19 +615,19 @@
         <v>0.7246823806390028</v>
       </c>
       <c r="C10">
-        <v>0.8132118619792688</v>
+        <v>0.8157487081231943</v>
       </c>
       <c r="D10">
-        <v>0.04532416631056392</v>
+        <v>0.04616060479683424</v>
       </c>
       <c r="E10">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F10">
-        <v>-1.953251180256833</v>
+        <v>-1.972814868544291</v>
       </c>
       <c r="G10">
-        <v>0.038</v>
+        <v>0.045</v>
       </c>
       <c r="H10">
         <v>999</v>
@@ -641,19 +641,19 @@
         <v>0.6740313365185098</v>
       </c>
       <c r="C11">
-        <v>0.8151473922016251</v>
+        <v>0.8143630345946103</v>
       </c>
       <c r="D11">
-        <v>0.03998354231137635</v>
+        <v>0.03775942159881025</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>-3.529353517108568</v>
+        <v>-3.716468423883967</v>
       </c>
       <c r="G11">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="H11">
         <v>999</v>
@@ -667,19 +667,19 @@
         <v>0.7672366760095375</v>
       </c>
       <c r="C12">
-        <v>0.8151825112459782</v>
+        <v>0.8141866836965034</v>
       </c>
       <c r="D12">
-        <v>0.04253464854325129</v>
+        <v>0.04348114980193407</v>
       </c>
       <c r="E12">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F12">
-        <v>-1.127218323849251</v>
+        <v>-1.079778430442461</v>
       </c>
       <c r="G12">
-        <v>0.113</v>
+        <v>0.129</v>
       </c>
       <c r="H12">
         <v>999</v>
@@ -693,19 +693,19 @@
         <v>0.7720328944966637</v>
       </c>
       <c r="C13">
-        <v>0.8143744392315528</v>
+        <v>0.8137666750995646</v>
       </c>
       <c r="D13">
-        <v>0.04474938472115854</v>
+        <v>0.04253403133585658</v>
       </c>
       <c r="E13">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13">
-        <v>-0.9461927800510987</v>
+        <v>-0.9811856363522951</v>
       </c>
       <c r="G13">
-        <v>0.151</v>
+        <v>0.15</v>
       </c>
       <c r="H13">
         <v>999</v>
@@ -719,19 +719,19 @@
         <v>0.7920325931411206</v>
       </c>
       <c r="C14">
-        <v>0.8135967635999611</v>
+        <v>0.8112721655372576</v>
       </c>
       <c r="D14">
-        <v>0.04560564538996101</v>
+        <v>0.04353516973126354</v>
       </c>
       <c r="E14">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="F14">
-        <v>-0.4728399362502466</v>
+        <v>-0.4419317189963908</v>
       </c>
       <c r="G14">
-        <v>0.256</v>
+        <v>0.278</v>
       </c>
       <c r="H14">
         <v>999</v>
@@ -745,19 +745,19 @@
         <v>0.7559014238093797</v>
       </c>
       <c r="C15">
-        <v>0.8153278445689268</v>
+        <v>0.8101552011891949</v>
       </c>
       <c r="D15">
-        <v>0.04567170857431767</v>
+        <v>0.04915181393964181</v>
       </c>
       <c r="E15">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F15">
-        <v>-1.30116482642307</v>
+        <v>-1.103800104843303</v>
       </c>
       <c r="G15">
-        <v>0.107</v>
+        <v>0.12</v>
       </c>
       <c r="H15">
         <v>999</v>
@@ -771,19 +771,19 @@
         <v>0.7910144562632928</v>
       </c>
       <c r="C16">
-        <v>0.8132319617109395</v>
+        <v>0.8142095336039481</v>
       </c>
       <c r="D16">
-        <v>0.07924820146877275</v>
+        <v>0.07642286594990143</v>
       </c>
       <c r="E16">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F16">
-        <v>-0.2803534343476721</v>
+        <v>-0.3035096505784105</v>
       </c>
       <c r="G16">
-        <v>0.318</v>
+        <v>0.305</v>
       </c>
       <c r="H16">
         <v>999</v>
@@ -797,19 +797,19 @@
         <v>0.8051833802247622</v>
       </c>
       <c r="C17">
-        <v>0.8174736015291182</v>
+        <v>0.8130960105029161</v>
       </c>
       <c r="D17">
-        <v>0.05791824433386231</v>
+        <v>0.05994319801222771</v>
       </c>
       <c r="E17">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F17">
-        <v>-0.2121994795545004</v>
+        <v>-0.132002137699424</v>
       </c>
       <c r="G17">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="H17">
         <v>999</v>
@@ -823,19 +823,19 @@
         <v>0.700446528150247</v>
       </c>
       <c r="C18">
-        <v>0.810689578316669</v>
+        <v>0.8159512074652914</v>
       </c>
       <c r="D18">
-        <v>0.0550682281772926</v>
+        <v>0.04962048479775876</v>
       </c>
       <c r="E18">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F18">
-        <v>-2.001935668086026</v>
+        <v>-2.327762007683195</v>
       </c>
       <c r="G18">
-        <v>0.044</v>
+        <v>0.029</v>
       </c>
       <c r="H18">
         <v>999</v>
@@ -849,19 +849,19 @@
         <v>0.8548670576500005</v>
       </c>
       <c r="C19">
-        <v>0.8134168017911276</v>
+        <v>0.8127804667741664</v>
       </c>
       <c r="D19">
-        <v>0.06770557988103806</v>
+        <v>0.07270934148785589</v>
       </c>
       <c r="E19">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="F19">
-        <v>0.6122132907169975</v>
+        <v>0.5788333385313842</v>
       </c>
       <c r="G19">
-        <v>0.72</v>
+        <v>0.697</v>
       </c>
       <c r="H19">
         <v>999</v>
@@ -875,19 +875,19 @@
         <v>0.910398395693537</v>
       </c>
       <c r="C20">
-        <v>0.8159502987695134</v>
+        <v>0.8149926965472285</v>
       </c>
       <c r="D20">
-        <v>0.1773397576388313</v>
+        <v>0.1781248825799227</v>
       </c>
       <c r="E20">
-        <v>914</v>
+        <v>904.5</v>
       </c>
       <c r="F20">
-        <v>0.5325827562952681</v>
+        <v>0.5356112956509654</v>
       </c>
       <c r="G20">
-        <v>0.914</v>
+        <v>0.9045</v>
       </c>
       <c r="H20">
         <v>999</v>
@@ -901,19 +901,19 @@
         <v>0.8398512572283161</v>
       </c>
       <c r="C21">
-        <v>0.8125113371162483</v>
+        <v>0.8141188578444369</v>
       </c>
       <c r="D21">
-        <v>0.05632435955394872</v>
+        <v>0.05445916783387213</v>
       </c>
       <c r="E21">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="F21">
-        <v>0.4854013490536182</v>
+        <v>0.4725081268662778</v>
       </c>
       <c r="G21">
-        <v>0.668</v>
+        <v>0.644</v>
       </c>
       <c r="H21">
         <v>999</v>
@@ -927,19 +927,19 @@
         <v>0.7700458799425641</v>
       </c>
       <c r="C22">
-        <v>0.8133050742079045</v>
+        <v>0.8161351992199665</v>
       </c>
       <c r="D22">
-        <v>0.04433701955139442</v>
+        <v>0.04477838381244041</v>
       </c>
       <c r="E22">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F22">
-        <v>-0.9756901727504571</v>
+        <v>-1.029276078173186</v>
       </c>
       <c r="G22">
-        <v>0.154</v>
+        <v>0.141</v>
       </c>
       <c r="H22">
         <v>999</v>
@@ -953,19 +953,19 @@
         <v>0.7649857561548705</v>
       </c>
       <c r="C23">
-        <v>0.815558843560189</v>
+        <v>0.8131543016296816</v>
       </c>
       <c r="D23">
-        <v>0.05622819312511017</v>
+        <v>0.05951015251924714</v>
       </c>
       <c r="E23">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F23">
-        <v>-0.8994257968203105</v>
+        <v>-0.8094172747957943</v>
       </c>
       <c r="G23">
-        <v>0.156</v>
+        <v>0.17</v>
       </c>
       <c r="H23">
         <v>999</v>
@@ -979,19 +979,19 @@
         <v>0.8489739694122419</v>
       </c>
       <c r="C24">
-        <v>0.8141448905798229</v>
+        <v>0.8149487894852084</v>
       </c>
       <c r="D24">
-        <v>0.04614183414271615</v>
+        <v>0.04606988103120495</v>
       </c>
       <c r="E24">
-        <v>795</v>
+        <v>771</v>
       </c>
       <c r="F24">
-        <v>0.7548264926940942</v>
+        <v>0.7385558452817985</v>
       </c>
       <c r="G24">
-        <v>0.795</v>
+        <v>0.771</v>
       </c>
       <c r="H24">
         <v>999</v>
@@ -1005,19 +1005,19 @@
         <v>0.811579834396669</v>
       </c>
       <c r="C25">
-        <v>0.8132565309432054</v>
+        <v>0.8136474240103097</v>
       </c>
       <c r="D25">
-        <v>0.04325824244188634</v>
+        <v>0.04447685222000683</v>
       </c>
       <c r="E25">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="F25">
-        <v>-0.0387601634252442</v>
+        <v>-0.04648686924634842</v>
       </c>
       <c r="G25">
-        <v>0.423</v>
+        <v>0.397</v>
       </c>
       <c r="H25">
         <v>999</v>
@@ -1031,19 +1031,19 @@
         <v>0.8161041860800902</v>
       </c>
       <c r="C26">
-        <v>0.8148489435035954</v>
+        <v>0.8169622341415126</v>
       </c>
       <c r="D26">
-        <v>0.08897681081877989</v>
+        <v>0.08501575118520069</v>
       </c>
       <c r="E26">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F26">
-        <v>0.01410752492636934</v>
+        <v>-0.01009281279598679</v>
       </c>
       <c r="G26">
-        <v>0.415</v>
+        <v>0.404</v>
       </c>
       <c r="H26">
         <v>999</v>
@@ -1057,19 +1057,19 @@
         <v>0.6910608644153449</v>
       </c>
       <c r="C27">
-        <v>0.8133794956100046</v>
+        <v>0.8113706020689645</v>
       </c>
       <c r="D27">
-        <v>0.06313420789343259</v>
+        <v>0.06831156120573721</v>
       </c>
       <c r="E27">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F27">
-        <v>-1.93743828070398</v>
+        <v>-1.761191451784816</v>
       </c>
       <c r="G27">
-        <v>0.04</v>
+        <v>0.061</v>
       </c>
       <c r="H27">
         <v>999</v>
@@ -1083,19 +1083,19 @@
         <v>0.7648425493989489</v>
       </c>
       <c r="C28">
-        <v>0.8140914395039597</v>
+        <v>0.8117993337092215</v>
       </c>
       <c r="D28">
-        <v>0.06592685714603021</v>
+        <v>0.06549924686761407</v>
       </c>
       <c r="E28">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="F28">
-        <v>-0.7470231744237833</v>
+        <v>-0.716905713514246</v>
       </c>
       <c r="G28">
-        <v>0.186</v>
+        <v>0.2</v>
       </c>
       <c r="H28">
         <v>999</v>
@@ -1109,16 +1109,16 @@
         <v>0.8046342035922195</v>
       </c>
       <c r="C29">
-        <v>0.813842998404774</v>
+        <v>0.8133725177069575</v>
       </c>
       <c r="D29">
-        <v>0.04444070160974189</v>
+        <v>0.04303980451073904</v>
       </c>
       <c r="E29">
         <v>351</v>
       </c>
       <c r="F29">
-        <v>-0.2072153336691668</v>
+        <v>-0.2030286664651948</v>
       </c>
       <c r="G29">
         <v>0.351</v>
@@ -1135,19 +1135,19 @@
         <v>0.7854328392800524</v>
       </c>
       <c r="C30">
-        <v>0.811762891704971</v>
+        <v>0.8126808739090893</v>
       </c>
       <c r="D30">
-        <v>0.05534278166788134</v>
+        <v>0.05196590291856169</v>
       </c>
       <c r="E30">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="F30">
-        <v>-0.4757630829423861</v>
+        <v>-0.5243444854934713</v>
       </c>
       <c r="G30">
-        <v>0.249</v>
+        <v>0.227</v>
       </c>
       <c r="H30">
         <v>999</v>
@@ -1161,19 +1161,19 @@
         <v>0.7801520873292052</v>
       </c>
       <c r="C31">
-        <v>0.8132188495889492</v>
+        <v>0.8153350346571088</v>
       </c>
       <c r="D31">
-        <v>0.04380354602336581</v>
+        <v>0.04281125472794261</v>
       </c>
       <c r="E31">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F31">
-        <v>-0.7548877947485226</v>
+        <v>-0.8218153742861442</v>
       </c>
       <c r="G31">
-        <v>0.193</v>
+        <v>0.182</v>
       </c>
       <c r="H31">
         <v>999</v>
@@ -1187,19 +1187,19 @@
         <v>0.8321794941569312</v>
       </c>
       <c r="C32">
-        <v>0.8132021822436425</v>
+        <v>0.8131843139634143</v>
       </c>
       <c r="D32">
-        <v>0.05106674124811991</v>
+        <v>0.04869109735221461</v>
       </c>
       <c r="E32">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="F32">
-        <v>0.3716178367654767</v>
+        <v>0.3901160833593929</v>
       </c>
       <c r="G32">
-        <v>0.608</v>
+        <v>0.614</v>
       </c>
       <c r="H32">
         <v>999</v>
@@ -1213,19 +1213,19 @@
         <v>0.8520447911101809</v>
       </c>
       <c r="C33">
-        <v>0.8130499263186227</v>
+        <v>0.8124274263804055</v>
       </c>
       <c r="D33">
-        <v>0.05216707461762826</v>
+        <v>0.05322644897163819</v>
       </c>
       <c r="E33">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="F33">
-        <v>0.747499549809548</v>
+        <v>0.7443172613466208</v>
       </c>
       <c r="G33">
-        <v>0.786</v>
+        <v>0.791</v>
       </c>
       <c r="H33">
         <v>999</v>
@@ -1239,19 +1239,19 @@
         <v>0.1474853367392775</v>
       </c>
       <c r="C34">
-        <v>0.8194042422595685</v>
+        <v>0.8137915746238261</v>
       </c>
       <c r="D34">
-        <v>0.1117332139507052</v>
+        <v>0.1194126548556955</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>-6.013600448446155</v>
+        <v>-5.579862860345481</v>
       </c>
       <c r="G34">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H34">
         <v>999</v>
@@ -1265,16 +1265,16 @@
         <v>0.6613698667066551</v>
       </c>
       <c r="C35">
-        <v>0.8128393114093322</v>
+        <v>0.8140305772458958</v>
       </c>
       <c r="D35">
-        <v>0.07675130334533778</v>
+        <v>0.07354155803040111</v>
       </c>
       <c r="E35">
         <v>43</v>
       </c>
       <c r="F35">
-        <v>-1.973509739908254</v>
+        <v>-2.075842756501471</v>
       </c>
       <c r="G35">
         <v>0.043</v>
@@ -1291,19 +1291,19 @@
         <v>0.7360033894492968</v>
       </c>
       <c r="C36">
-        <v>0.8141320525686992</v>
+        <v>0.8133280465955339</v>
       </c>
       <c r="D36">
-        <v>0.06316941981076718</v>
+        <v>0.06817925793334399</v>
       </c>
       <c r="E36">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F36">
-        <v>-1.236811472282756</v>
+        <v>-1.13413755869614</v>
       </c>
       <c r="G36">
-        <v>0.11</v>
+        <v>0.119</v>
       </c>
       <c r="H36">
         <v>999</v>
@@ -1317,19 +1317,19 @@
         <v>0.6921753146342938</v>
       </c>
       <c r="C37">
-        <v>0.8112361277699384</v>
+        <v>0.8121094538208454</v>
       </c>
       <c r="D37">
-        <v>0.07497145466937731</v>
+        <v>0.07227341154906786</v>
       </c>
       <c r="E37">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F37">
-        <v>-1.588081939462165</v>
+        <v>-1.659450365161273</v>
       </c>
       <c r="G37">
-        <v>0.074</v>
+        <v>0.067</v>
       </c>
       <c r="H37">
         <v>999</v>
@@ -1343,19 +1343,19 @@
         <v>0.7788263135747733</v>
       </c>
       <c r="C38">
-        <v>0.8089082591911287</v>
+        <v>0.8114879269996204</v>
       </c>
       <c r="D38">
-        <v>0.06380568757653687</v>
+        <v>0.06146017235457572</v>
       </c>
       <c r="E38">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="F38">
-        <v>-0.471461820394479</v>
+        <v>-0.5314272995593937</v>
       </c>
       <c r="G38">
-        <v>0.26</v>
+        <v>0.235</v>
       </c>
       <c r="H38">
         <v>999</v>
@@ -1369,19 +1369,19 @@
         <v>0.8665710640709505</v>
       </c>
       <c r="C39">
-        <v>0.8141967894167645</v>
+        <v>0.8118339334056089</v>
       </c>
       <c r="D39">
-        <v>0.04186601673509546</v>
+        <v>0.04255503756264148</v>
       </c>
       <c r="E39">
-        <v>918</v>
+        <v>927</v>
       </c>
       <c r="F39">
-        <v>1.250997318077353</v>
+        <v>1.286266768881779</v>
       </c>
       <c r="G39">
-        <v>0.918</v>
+        <v>0.927</v>
       </c>
       <c r="H39">
         <v>999</v>
@@ -1395,19 +1395,19 @@
         <v>0.8333818884387274</v>
       </c>
       <c r="C40">
-        <v>0.8112144592235055</v>
+        <v>0.8132857040583765</v>
       </c>
       <c r="D40">
-        <v>0.03788892612424151</v>
+        <v>0.03804579232278058</v>
       </c>
       <c r="E40">
-        <v>709</v>
+        <v>678</v>
       </c>
       <c r="F40">
-        <v>0.5850635392128212</v>
+        <v>0.5282104315203849</v>
       </c>
       <c r="G40">
-        <v>0.709</v>
+        <v>0.678</v>
       </c>
       <c r="H40">
         <v>999</v>
@@ -1421,19 +1421,19 @@
         <v>0.7890929438856367</v>
       </c>
       <c r="C41">
-        <v>0.8141642031209222</v>
+        <v>0.8161030513979238</v>
       </c>
       <c r="D41">
-        <v>0.04193182987168466</v>
+        <v>0.04041752900361134</v>
       </c>
       <c r="E41">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F41">
-        <v>-0.5979052026111413</v>
+        <v>-0.6682770614174307</v>
       </c>
       <c r="G41">
-        <v>0.225</v>
+        <v>0.217</v>
       </c>
       <c r="H41">
         <v>999</v>
@@ -1447,19 +1447,19 @@
         <v>0.8053885894781249</v>
       </c>
       <c r="C42">
-        <v>0.8155758822331149</v>
+        <v>0.8131126177372494</v>
       </c>
       <c r="D42">
-        <v>0.03373580310466918</v>
+        <v>0.03534882897969645</v>
       </c>
       <c r="E42">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="F42">
-        <v>-0.3019727357129411</v>
+        <v>-0.2185087450438896</v>
       </c>
       <c r="G42">
-        <v>0.334</v>
+        <v>0.362</v>
       </c>
       <c r="H42">
         <v>999</v>
@@ -1473,19 +1473,19 @@
         <v>0.7991406423956039</v>
       </c>
       <c r="C43">
-        <v>0.8161281828117917</v>
+        <v>0.8115047841055008</v>
       </c>
       <c r="D43">
-        <v>0.05092908581386541</v>
+        <v>0.05505064991581506</v>
       </c>
       <c r="E43">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="F43">
-        <v>-0.3335528243776747</v>
+        <v>-0.2245957446243494</v>
       </c>
       <c r="G43">
-        <v>0.319</v>
+        <v>0.337</v>
       </c>
       <c r="H43">
         <v>999</v>
@@ -1499,19 +1499,19 @@
         <v>0.7696350720434905</v>
       </c>
       <c r="C44">
-        <v>0.8131826816437726</v>
+        <v>0.8133048385456211</v>
       </c>
       <c r="D44">
-        <v>0.04729704488756591</v>
+        <v>0.04689380380284607</v>
       </c>
       <c r="E44">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F44">
-        <v>-0.9207258022949026</v>
+        <v>-0.9312481172508386</v>
       </c>
       <c r="G44">
-        <v>0.152</v>
+        <v>0.145</v>
       </c>
       <c r="H44">
         <v>999</v>
@@ -1525,19 +1525,19 @@
         <v>0.7555094291980496</v>
       </c>
       <c r="C45">
-        <v>0.8134416743819662</v>
+        <v>0.8131908313271066</v>
       </c>
       <c r="D45">
-        <v>0.05494082830028135</v>
+        <v>0.0533309383546105</v>
       </c>
       <c r="E45">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F45">
-        <v>-1.054447975689146</v>
+        <v>-1.081574858959337</v>
       </c>
       <c r="G45">
-        <v>0.128</v>
+        <v>0.127</v>
       </c>
       <c r="H45">
         <v>999</v>
@@ -1551,19 +1551,19 @@
         <v>0.8019016235145586</v>
       </c>
       <c r="C46">
-        <v>0.813352512564517</v>
+        <v>0.8164021184938768</v>
       </c>
       <c r="D46">
-        <v>0.05534682345896419</v>
+        <v>0.05076635504506842</v>
       </c>
       <c r="E46">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F46">
-        <v>-0.2068933379428438</v>
+        <v>-0.2856319892662212</v>
       </c>
       <c r="G46">
-        <v>0.331</v>
+        <v>0.32</v>
       </c>
       <c r="H46">
         <v>999</v>
@@ -1577,19 +1577,19 @@
         <v>0.7331293692841051</v>
       </c>
       <c r="C47">
-        <v>0.8157934212698426</v>
+        <v>0.8120737454990481</v>
       </c>
       <c r="D47">
-        <v>0.06188868773723757</v>
+        <v>0.06842238786998374</v>
       </c>
       <c r="E47">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="F47">
-        <v>-1.33568920279432</v>
+        <v>-1.153779905561804</v>
       </c>
       <c r="G47">
-        <v>0.102</v>
+        <v>0.118</v>
       </c>
       <c r="H47">
         <v>999</v>
@@ -1603,16 +1603,16 @@
         <v>0.5704356082995462</v>
       </c>
       <c r="C48">
-        <v>0.8126813981303879</v>
+        <v>0.8156219228560546</v>
       </c>
       <c r="D48">
-        <v>0.04779437144249198</v>
+        <v>0.04347557337378561</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48">
-        <v>-5.068500380265929</v>
+        <v>-5.639633834118631</v>
       </c>
       <c r="G48">
         <v>0.002</v>
@@ -1629,19 +1629,19 @@
         <v>0.7125383546362919</v>
       </c>
       <c r="C49">
-        <v>0.8139764628252339</v>
+        <v>0.8146596436108697</v>
       </c>
       <c r="D49">
-        <v>0.07796616957225262</v>
+        <v>0.07693503601090851</v>
       </c>
       <c r="E49">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F49">
-        <v>-1.301052863638986</v>
+        <v>-1.327370392861039</v>
       </c>
       <c r="G49">
-        <v>0.103</v>
+        <v>0.107</v>
       </c>
       <c r="H49">
         <v>999</v>
@@ -1655,19 +1655,19 @@
         <v>0.7233208669082962</v>
       </c>
       <c r="C50">
-        <v>0.8156959164165528</v>
+        <v>0.8131546056079081</v>
       </c>
       <c r="D50">
-        <v>0.04026877779986025</v>
+        <v>0.04221573142732226</v>
       </c>
       <c r="E50">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F50">
-        <v>-2.293962085647833</v>
+        <v>-2.127968310919066</v>
       </c>
       <c r="G50">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="H50">
         <v>999</v>
@@ -1681,19 +1681,19 @@
         <v>0.7728057914599651</v>
       </c>
       <c r="C51">
-        <v>0.8128638681612936</v>
+        <v>0.8130421931256163</v>
       </c>
       <c r="D51">
-        <v>0.03730243319778315</v>
+        <v>0.03819971450694335</v>
       </c>
       <c r="E51">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F51">
-        <v>-1.073873022945569</v>
+        <v>-1.053316816237925</v>
       </c>
       <c r="G51">
-        <v>0.142</v>
+        <v>0.143</v>
       </c>
       <c r="H51">
         <v>999</v>
@@ -1707,19 +1707,19 @@
         <v>0.8040680162764868</v>
       </c>
       <c r="C52">
-        <v>0.8132471691661607</v>
+        <v>0.8121301901967013</v>
       </c>
       <c r="D52">
-        <v>0.04774324310683412</v>
+        <v>0.04739907445927408</v>
       </c>
       <c r="E52">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F52">
-        <v>-0.1922607743494477</v>
+        <v>-0.1700913786226268</v>
       </c>
       <c r="G52">
-        <v>0.364</v>
+        <v>0.359</v>
       </c>
       <c r="H52">
         <v>999</v>
@@ -1733,19 +1733,19 @@
         <v>0.8269320498013099</v>
       </c>
       <c r="C53">
-        <v>0.8129370449467921</v>
+        <v>0.8126676860987665</v>
       </c>
       <c r="D53">
-        <v>0.04718768858389507</v>
+        <v>0.04619234221531603</v>
       </c>
       <c r="E53">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="F53">
-        <v>0.2965816990513537</v>
+        <v>0.3088036461986055</v>
       </c>
       <c r="G53">
-        <v>0.575</v>
+        <v>0.58</v>
       </c>
       <c r="H53">
         <v>999</v>
@@ -1759,19 +1759,19 @@
         <v>0.738493290804711</v>
       </c>
       <c r="C54">
-        <v>0.8142703553521705</v>
+        <v>0.8107625639429817</v>
       </c>
       <c r="D54">
-        <v>0.05814229952159679</v>
+        <v>0.06077863281678937</v>
       </c>
       <c r="E54">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F54">
-        <v>-1.303303535824418</v>
+        <v>-1.189057235889439</v>
       </c>
       <c r="G54">
-        <v>0.095</v>
+        <v>0.109</v>
       </c>
       <c r="H54">
         <v>999</v>
@@ -1785,19 +1785,19 @@
         <v>0.8028572606200937</v>
       </c>
       <c r="C55">
-        <v>0.8133921370287538</v>
+        <v>0.8138122777203959</v>
       </c>
       <c r="D55">
-        <v>0.03253775171632212</v>
+        <v>0.03180701279357542</v>
       </c>
       <c r="E55">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="F55">
-        <v>-0.3237739503487407</v>
+        <v>-0.3444214384858859</v>
       </c>
       <c r="G55">
-        <v>0.312</v>
+        <v>0.329</v>
       </c>
       <c r="H55">
         <v>999</v>
@@ -1811,19 +1811,19 @@
         <v>0.8466161723030237</v>
       </c>
       <c r="C56">
-        <v>0.8126065347476856</v>
+        <v>0.811866101099402</v>
       </c>
       <c r="D56">
-        <v>0.04305051221522058</v>
+        <v>0.04388183701607337</v>
       </c>
       <c r="E56">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="F56">
-        <v>0.7899937957837787</v>
+        <v>0.7919010134168516</v>
       </c>
       <c r="G56">
-        <v>0.789</v>
+        <v>0.798</v>
       </c>
       <c r="H56">
         <v>999</v>
@@ -1837,19 +1837,19 @@
         <v>0.8118753322542148</v>
       </c>
       <c r="C57">
-        <v>0.812773984423535</v>
+        <v>0.813021369704519</v>
       </c>
       <c r="D57">
-        <v>0.03693979499864489</v>
+        <v>0.03691646632996383</v>
       </c>
       <c r="E57">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="F57">
-        <v>-0.02432748122595524</v>
+        <v>-0.03104407231344275</v>
       </c>
       <c r="G57">
-        <v>0.443</v>
+        <v>0.427</v>
       </c>
       <c r="H57">
         <v>999</v>
@@ -1863,19 +1863,19 @@
         <v>0.8314701242733409</v>
       </c>
       <c r="C58">
-        <v>0.8150634415610986</v>
+        <v>0.8115673407001103</v>
       </c>
       <c r="D58">
-        <v>0.03986085875948121</v>
+        <v>0.03933884824576245</v>
       </c>
       <c r="E58">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="F58">
-        <v>0.4115988270909962</v>
+        <v>0.5059320356531923</v>
       </c>
       <c r="G58">
-        <v>0.637</v>
+        <v>0.661</v>
       </c>
       <c r="H58">
         <v>999</v>
@@ -1889,19 +1889,19 @@
         <v>0.8179830798069313</v>
       </c>
       <c r="C59">
-        <v>0.8134354854816181</v>
+        <v>0.8134476755132337</v>
       </c>
       <c r="D59">
-        <v>0.04976727324204502</v>
+        <v>0.05041950476633224</v>
       </c>
       <c r="E59">
-        <v>497</v>
+        <v>460</v>
       </c>
       <c r="F59">
-        <v>0.09137720491930021</v>
+        <v>0.08995336853697371</v>
       </c>
       <c r="G59">
-        <v>0.497</v>
+        <v>0.46</v>
       </c>
       <c r="H59">
         <v>999</v>
@@ -1915,19 +1915,19 @@
         <v>0.8358245823225419</v>
       </c>
       <c r="C60">
-        <v>0.8117094272679147</v>
+        <v>0.8132924605769758</v>
       </c>
       <c r="D60">
-        <v>0.04110430913702158</v>
+        <v>0.04092074940436801</v>
       </c>
       <c r="E60">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="F60">
-        <v>0.5866819212126654</v>
+        <v>0.5506282771830401</v>
       </c>
       <c r="G60">
-        <v>0.71</v>
+        <v>0.696</v>
       </c>
       <c r="H60">
         <v>999</v>
@@ -1941,19 +1941,19 @@
         <v>0.8559972031969506</v>
       </c>
       <c r="C61">
-        <v>0.8146556187736226</v>
+        <v>0.8156218937403543</v>
       </c>
       <c r="D61">
-        <v>0.05744710553528476</v>
+        <v>0.05935426950780388</v>
       </c>
       <c r="E61">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="F61">
-        <v>0.7196460820456043</v>
+        <v>0.6802427153330183</v>
       </c>
       <c r="G61">
-        <v>0.769</v>
+        <v>0.761</v>
       </c>
       <c r="H61">
         <v>999</v>
@@ -1967,19 +1967,19 @@
         <v>0.8686341508348855</v>
       </c>
       <c r="C62">
-        <v>0.8134934776231867</v>
+        <v>0.8112856042499145</v>
       </c>
       <c r="D62">
-        <v>0.05636578035027572</v>
+        <v>0.06465363500286686</v>
       </c>
       <c r="E62">
-        <v>867</v>
+        <v>849</v>
       </c>
       <c r="F62">
-        <v>0.978265054950651</v>
+        <v>0.8870119457696087</v>
       </c>
       <c r="G62">
-        <v>0.867</v>
+        <v>0.849</v>
       </c>
       <c r="H62">
         <v>999</v>
@@ -1993,19 +1993,19 @@
         <v>0.8412253773828244</v>
       </c>
       <c r="C63">
-        <v>0.8150497707871421</v>
+        <v>0.81450665485604</v>
       </c>
       <c r="D63">
-        <v>0.0427594416961042</v>
+        <v>0.04161562007082894</v>
       </c>
       <c r="E63">
-        <v>728</v>
+        <v>748</v>
       </c>
       <c r="F63">
-        <v>0.6121596905243771</v>
+        <v>0.6420359105862101</v>
       </c>
       <c r="G63">
-        <v>0.728</v>
+        <v>0.748</v>
       </c>
       <c r="H63">
         <v>999</v>
@@ -2019,19 +2019,19 @@
         <v>0.7626414196722806</v>
       </c>
       <c r="C64">
-        <v>0.8146011985677731</v>
+        <v>0.8157248436311442</v>
       </c>
       <c r="D64">
-        <v>0.04896039275199334</v>
+        <v>0.04467326544255604</v>
       </c>
       <c r="E64">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F64">
-        <v>-1.061261480452014</v>
+        <v>-1.188259318699724</v>
       </c>
       <c r="G64">
-        <v>0.122</v>
+        <v>0.131</v>
       </c>
       <c r="H64">
         <v>999</v>
@@ -2045,19 +2045,19 @@
         <v>0.8326868220003228</v>
       </c>
       <c r="C65">
-        <v>0.815209959650235</v>
+        <v>0.8129778648954464</v>
       </c>
       <c r="D65">
-        <v>0.03603676688636965</v>
+        <v>0.03887628037864765</v>
       </c>
       <c r="E65">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="F65">
-        <v>0.4849730944286842</v>
+        <v>0.506966122090768</v>
       </c>
       <c r="G65">
-        <v>0.675</v>
+        <v>0.68</v>
       </c>
       <c r="H65">
         <v>999</v>
@@ -2071,19 +2071,19 @@
         <v>0.5524872480101192</v>
       </c>
       <c r="C66">
-        <v>0.8169624561083965</v>
+        <v>0.8146962709426434</v>
       </c>
       <c r="D66">
-        <v>0.09098012525023025</v>
+        <v>0.09220543397863477</v>
       </c>
       <c r="E66">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F66">
-        <v>-2.906955858445666</v>
+        <v>-2.843748048442368</v>
       </c>
       <c r="G66">
-        <v>0.022</v>
+        <v>0.018</v>
       </c>
       <c r="H66">
         <v>999</v>
@@ -2097,19 +2097,19 @@
         <v>0.8321828333253966</v>
       </c>
       <c r="C67">
-        <v>0.808562837559867</v>
+        <v>0.8120091106355055</v>
       </c>
       <c r="D67">
-        <v>0.05337058903635249</v>
+        <v>0.05341297737360102</v>
       </c>
       <c r="E67">
-        <v>627</v>
+        <v>600</v>
       </c>
       <c r="F67">
-        <v>0.4425657687502974</v>
+        <v>0.3776932813309478</v>
       </c>
       <c r="G67">
-        <v>0.627</v>
+        <v>0.6</v>
       </c>
       <c r="H67">
         <v>999</v>
@@ -2123,19 +2123,19 @@
         <v>0.8038833925721305</v>
       </c>
       <c r="C68">
-        <v>0.8135583928038947</v>
+        <v>0.8133671544253184</v>
       </c>
       <c r="D68">
-        <v>0.04570000588106512</v>
+        <v>0.04749858425088306</v>
       </c>
       <c r="E68">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F68">
-        <v>-0.2117067611970025</v>
+        <v>-0.1996640953148319</v>
       </c>
       <c r="G68">
-        <v>0.349</v>
+        <v>0.345</v>
       </c>
       <c r="H68">
         <v>999</v>
@@ -2149,19 +2149,19 @@
         <v>0.7775532324655576</v>
       </c>
       <c r="C69">
-        <v>0.8121553153549859</v>
+        <v>0.8123767608224931</v>
       </c>
       <c r="D69">
-        <v>0.04548892879041892</v>
+        <v>0.04956577499730414</v>
       </c>
       <c r="E69">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F69">
-        <v>-0.760670427058205</v>
+        <v>-0.7025720541811261</v>
       </c>
       <c r="G69">
-        <v>0.193</v>
+        <v>0.196</v>
       </c>
       <c r="H69">
         <v>999</v>
@@ -2175,19 +2175,19 @@
         <v>0.834466960299678</v>
       </c>
       <c r="C70">
-        <v>0.8113650866659436</v>
+        <v>0.8151743158759263</v>
       </c>
       <c r="D70">
-        <v>0.057135305276922</v>
+        <v>0.05498535343765582</v>
       </c>
       <c r="E70">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="F70">
-        <v>0.4043362247171832</v>
+        <v>0.3508687899155983</v>
       </c>
       <c r="G70">
-        <v>0.619</v>
+        <v>0.6</v>
       </c>
       <c r="H70">
         <v>999</v>
@@ -2201,19 +2201,19 @@
         <v>0.7849152918482329</v>
       </c>
       <c r="C71">
-        <v>0.8136666595709092</v>
+        <v>0.8126746352562347</v>
       </c>
       <c r="D71">
-        <v>0.02999583590371853</v>
+        <v>0.0316493547201418</v>
       </c>
       <c r="E71">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="F71">
-        <v>-0.958511968626686</v>
+        <v>-0.8770903436566944</v>
       </c>
       <c r="G71">
-        <v>0.151</v>
+        <v>0.174</v>
       </c>
       <c r="H71">
         <v>999</v>
@@ -2227,19 +2227,19 @@
         <v>0.792074720438589</v>
       </c>
       <c r="C72">
-        <v>0.8134611418866733</v>
+        <v>0.8147396112472821</v>
       </c>
       <c r="D72">
-        <v>0.04763569213946314</v>
+        <v>0.04664904161768839</v>
       </c>
       <c r="E72">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F72">
-        <v>-0.4489579239338279</v>
+        <v>-0.4858597309338738</v>
       </c>
       <c r="G72">
-        <v>0.262</v>
+        <v>0.257</v>
       </c>
       <c r="H72">
         <v>999</v>
@@ -2253,19 +2253,19 @@
         <v>0.8355280235035424</v>
       </c>
       <c r="C73">
-        <v>0.8135801866309579</v>
+        <v>0.8132691155779701</v>
       </c>
       <c r="D73">
-        <v>0.03804771229407056</v>
+        <v>0.03921831405149732</v>
       </c>
       <c r="E73">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="F73">
-        <v>0.5768503688986552</v>
+        <v>0.5675641205877502</v>
       </c>
       <c r="G73">
-        <v>0.701</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H73">
         <v>999</v>
